--- a/dnd.xlsx
+++ b/dnd.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay Colond\dnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4E63BB6-AED7-445A-A7F6-95425B6795D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DD9E84-FE37-4E89-8FCC-53E32C30EE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="372" windowWidth="25272" windowHeight="12048"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGI" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="25">
-  <si>
-    <t>AGI level</t>
-  </si>
-  <si>
-    <t>Race_Eth</t>
-  </si>
-  <si>
-    <t>Ratio_Debt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
   <si>
     <t>SE_Bigger_50</t>
   </si>
@@ -63,9 +54,6 @@
     <t>110001-497686</t>
   </si>
   <si>
-    <t>EFC level</t>
-  </si>
-  <si>
     <t>$1-2,599</t>
   </si>
   <si>
@@ -78,18 +66,12 @@
     <t>$15,600 or more</t>
   </si>
   <si>
-    <t>Help_status</t>
-  </si>
-  <si>
     <t>No help</t>
   </si>
   <si>
     <t>Tuition only</t>
   </si>
   <si>
-    <t>‡</t>
-  </si>
-  <si>
     <t>Nontuition only</t>
   </si>
   <si>
@@ -97,12 +79,39 @@
   </si>
   <si>
     <t>Independent student</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>Race_Ethnicity</t>
+  </si>
+  <si>
+    <t>Debt_ratio</t>
+  </si>
+  <si>
+    <t>EFC</t>
+  </si>
+  <si>
+    <t>Parent_help</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,8 +589,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -936,11 +946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,325 +963,332 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
         <v>84</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
         <v>114</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
         <v>83</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
         <v>57</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
         <v>110</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
         <v>88</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
         <v>45</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
         <v>57.595599999999997</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
         <v>96.126300000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
         <v>66.890600000000006</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
         <v>50.4191</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
         <v>58</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
         <v>113</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
         <v>85</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
         <v>30</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
         <v>50</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
         <v>113</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
         <v>80</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
         <v>47</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1279,223 +1296,242 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
         <v>89</v>
       </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>105</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>69</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>67</v>
       </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>106</v>
       </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
         <v>87</v>
       </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
         <v>60</v>
       </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
         <v>65</v>
       </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
         <v>104</v>
       </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
         <v>87</v>
       </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
         <v>33</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
         <v>55</v>
       </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
         <v>105</v>
       </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>47</v>
       </c>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1503,249 +1539,272 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
         <v>71</v>
       </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>104</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>80</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>48</v>
       </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>51</v>
       </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>97</v>
       </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
         <v>77</v>
       </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
         <v>66</v>
       </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
         <v>107</v>
       </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
         <v>87</v>
       </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
         <v>47</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
         <v>50</v>
       </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
         <v>107</v>
       </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
         <v>83</v>
       </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
         <v>44</v>
       </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
         <v>93</v>
       </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
         <v>104</v>
       </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
         <v>75</v>
       </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
         <v>22</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1</v>
       </c>
     </row>

--- a/dnd.xlsx
+++ b/dnd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay Colond\dnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DD9E84-FE37-4E89-8FCC-53E32C30EE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51CF7C-C451-433D-BE1E-4A1B832F7C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGI" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
   <si>
     <t>SE_Bigger_50</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Parent_help</t>
+  </si>
+  <si>
+    <t>AGI_Label</t>
+  </si>
+  <si>
+    <t>EFC_Label</t>
+  </si>
+  <si>
+    <t>Parent_help_Label</t>
   </si>
 </sst>
 </file>
@@ -947,311 +956,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>84</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>114</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>83</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>24</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>57</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>110</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>88</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>45</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>57.595599999999997</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>96.126300000000001</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>66.890600000000006</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>50.4191</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>58</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>113</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>85</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>30</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>50</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>113</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>80</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>47</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1263,275 +1333,338 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
         <v>89</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
         <v>105</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
         <v>69</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>67</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
         <v>106</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
         <v>87</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>60</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
         <v>65</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
         <v>104</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
         <v>87</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>33</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
         <v>55</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
         <v>105</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
         <v>89</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>47</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
         <v>49</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
         <v>108</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
         <v>80</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>47</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,271 +1673,334 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
         <v>71</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
         <v>104</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>48</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>51</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
         <v>97</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
         <v>77</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
         <v>66</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
         <v>107</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
         <v>87</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>47</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
         <v>50</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
         <v>107</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
         <v>83</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>44</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
         <v>93</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
         <v>104</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
         <v>75</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>22</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>1</v>
       </c>
     </row>

--- a/dnd.xlsx
+++ b/dnd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay Colond\dnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51CF7C-C451-433D-BE1E-4A1B832F7C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC56EC-A1BA-48AA-8626-7CB1877D34C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,7 +958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1336,7 +1338,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dnd.xlsx
+++ b/dnd.xlsx
@@ -8,40 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay Colond\dnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC56EC-A1BA-48AA-8626-7CB1877D34C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D515D3-58C3-4A1F-A699-1180F79F7FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AGI" sheetId="1" r:id="rId1"/>
-    <sheet name="EFC" sheetId="2" r:id="rId2"/>
-    <sheet name="Help" sheetId="3" r:id="rId3"/>
+    <sheet name="AGIEFC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
-  <si>
-    <t>SE_Bigger_50</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
   <si>
     <t>100-30000</t>
   </si>
   <si>
-    <t xml:space="preserve">  White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Black or African American</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Hispanic or Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Asian</t>
-  </si>
-  <si>
     <t>30001-48000</t>
   </si>
   <si>
@@ -66,21 +49,6 @@
     <t>$15,600 or more</t>
   </si>
   <si>
-    <t>No help</t>
-  </si>
-  <si>
-    <t>Tuition only</t>
-  </si>
-  <si>
-    <t>Nontuition only</t>
-  </si>
-  <si>
-    <t>Tuition and nontuition</t>
-  </si>
-  <si>
-    <t>Independent student</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -99,22 +67,25 @@
     <t>Race_Ethnicity</t>
   </si>
   <si>
-    <t>Debt_ratio</t>
-  </si>
-  <si>
     <t>EFC</t>
   </si>
   <si>
-    <t>Parent_help</t>
-  </si>
-  <si>
     <t>AGI_Label</t>
   </si>
   <si>
     <t>EFC_Label</t>
   </si>
   <si>
-    <t>Parent_help_Label</t>
+    <t>Debt_ratio_AGI</t>
+  </si>
+  <si>
+    <t>SE_Bigger_50_AGI</t>
+  </si>
+  <si>
+    <t>Debt_ratio_EFC</t>
+  </si>
+  <si>
+    <t>SE_Bigger_50_EFC</t>
   </si>
 </sst>
 </file>
@@ -956,46 +927,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>84</v>
@@ -1004,15 +987,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>114</v>
@@ -1021,15 +1004,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>83</v>
@@ -1038,15 +1021,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>24</v>
@@ -1055,15 +1038,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>57</v>
@@ -1072,15 +1055,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>110</v>
@@ -1089,15 +1072,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>88</v>
@@ -1106,15 +1089,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>45</v>
@@ -1123,15 +1106,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>57.595599999999997</v>
@@ -1140,15 +1123,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>96.126300000000001</v>
@@ -1157,15 +1140,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>66.890600000000006</v>
@@ -1174,15 +1157,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>50.4191</v>
@@ -1191,15 +1174,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>58</v>
@@ -1208,15 +1191,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>113</v>
@@ -1225,15 +1208,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>85</v>
@@ -1242,15 +1225,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>30</v>
@@ -1259,15 +1242,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
       </c>
       <c r="D18" s="1">
         <v>50</v>
@@ -1276,15 +1259,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>113</v>
@@ -1293,15 +1276,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>80</v>
@@ -1310,20 +1293,360 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>47</v>
       </c>
       <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>89</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>105</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>69</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>67</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>106</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>87</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>60</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="1">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1">
+        <v>104</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1">
+        <v>87</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>33</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1">
+        <v>55</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1">
+        <v>105</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1">
+        <v>89</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1">
+        <v>47</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1">
+        <v>49</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1">
+        <v>108</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1">
+        <v>80</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1">
+        <v>47</v>
+      </c>
+      <c r="I41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1331,682 +1654,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>89</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>105</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>67</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>106</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>87</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>60</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>104</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>87</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>105</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>89</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>49</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>108</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>47</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>71</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>104</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>51</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>97</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>77</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>66</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>107</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>87</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>107</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>83</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>93</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>104</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>75</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dnd.xlsx
+++ b/dnd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay Colond\dnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D515D3-58C3-4A1F-A699-1180F79F7FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B4D03-AFE8-4F30-9F7D-EA2D6E0D5383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,15 +49,6 @@
     <t>$15,600 or more</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black or African American</t>
-  </si>
-  <si>
-    <t>Hispanic or Latino</t>
-  </si>
-  <si>
     <t>Asian</t>
   </si>
   <si>
@@ -86,6 +77,15 @@
   </si>
   <si>
     <t>SE_Bigger_50_EFC</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Latinx</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,31 +943,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>83</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>24</v>
@@ -1046,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>88</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>45</v>
@@ -1114,10 +1114,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>57.595599999999997</v>
+        <v>96.126300000000001</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
-        <v>96.126300000000001</v>
+        <v>57.595599999999997</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>66.890600000000006</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>50.4191</v>
@@ -1182,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1">
         <v>85</v>
@@ -1233,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>30</v>
@@ -1250,10 +1250,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1">
         <v>80</v>
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>47</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="1">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="1">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1457,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="1">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -1474,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="H31" s="1">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -1525,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="1">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -1542,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="1">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -1593,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="1">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -1610,7 +1610,7 @@
         <v>8</v>
       </c>
       <c r="H39" s="1">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>5</v>

--- a/dnd.xlsx
+++ b/dnd.xlsx
@@ -5,26 +5,43 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay Colond\dnd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af61fef4f68a2aa9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B4D03-AFE8-4F30-9F7D-EA2D6E0D5383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7300DFEB-F2AB-4E32-A276-0777BC5F4F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AGIEFC" sheetId="1" r:id="rId1"/>
+    <sheet name="AGI" sheetId="1" r:id="rId1"/>
+    <sheet name="EFC" sheetId="2" r:id="rId2"/>
+    <sheet name="Help" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
+  <si>
+    <t>SE_Bigger_50</t>
+  </si>
   <si>
     <t>100-30000</t>
   </si>
   <si>
+    <t xml:space="preserve">  White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Black or African American</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hispanic or Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Asian</t>
+  </si>
+  <si>
     <t>30001-48000</t>
   </si>
   <si>
@@ -49,6 +66,30 @@
     <t>$15,600 or more</t>
   </si>
   <si>
+    <t>No help</t>
+  </si>
+  <si>
+    <t>Tuition only</t>
+  </si>
+  <si>
+    <t>Nontuition only</t>
+  </si>
+  <si>
+    <t>Tuition and nontuition</t>
+  </si>
+  <si>
+    <t>Independent student</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
     <t>Asian</t>
   </si>
   <si>
@@ -58,34 +99,22 @@
     <t>Race_Ethnicity</t>
   </si>
   <si>
+    <t>Debt_ratio</t>
+  </si>
+  <si>
     <t>EFC</t>
   </si>
   <si>
+    <t>Parent_help</t>
+  </si>
+  <si>
     <t>AGI_Label</t>
   </si>
   <si>
     <t>EFC_Label</t>
   </si>
   <si>
-    <t>Debt_ratio_AGI</t>
-  </si>
-  <si>
-    <t>SE_Bigger_50_AGI</t>
-  </si>
-  <si>
-    <t>Debt_ratio_EFC</t>
-  </si>
-  <si>
-    <t>SE_Bigger_50_EFC</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Latinx</t>
+    <t>Parent_help_Label</t>
   </si>
 </sst>
 </file>
@@ -927,89 +956,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1021,15 +1038,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>24</v>
@@ -1038,46 +1055,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>110</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>57</v>
-      </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1089,15 +1106,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>45</v>
@@ -1106,46 +1123,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>57.595599999999997</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>96.126300000000001</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>57.595599999999997</v>
-      </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1157,15 +1174,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>50.4191</v>
@@ -1174,46 +1191,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>113</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>58</v>
-      </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -1225,15 +1242,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>30</v>
@@ -1242,46 +1259,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -1293,360 +1310,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1">
         <v>47</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>105</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>89</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>69</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>25</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1">
-        <v>106</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="1">
-        <v>67</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="1">
-        <v>87</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="1">
-        <v>60</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="1">
-        <v>104</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="1">
-        <v>65</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="1">
-        <v>87</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="1">
-        <v>33</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="1">
-        <v>105</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1">
-        <v>55</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="1">
-        <v>89</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="1">
-        <v>47</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="1">
-        <v>108</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="1">
-        <v>49</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="1">
-        <v>80</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="G41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="1">
-        <v>47</v>
-      </c>
-      <c r="I41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1654,4 +1331,682 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>89</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>105</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>106</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>104</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>105</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>89</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>104</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>97</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>93</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dnd.xlsx
+++ b/dnd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af61fef4f68a2aa9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay Colond\dnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7300DFEB-F2AB-4E32-A276-0777BC5F4F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC54AD-EE15-4D5A-89CF-F5EE51A51657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGI" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
   <si>
     <t>SE_Bigger_50</t>
   </si>
@@ -81,15 +81,6 @@
     <t>Independent student</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black or African American</t>
-  </si>
-  <si>
-    <t>Hispanic or Latino</t>
-  </si>
-  <si>
     <t>Asian</t>
   </si>
   <si>
@@ -115,6 +106,27 @@
   </si>
   <si>
     <t>Parent_help_Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> white</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Latinx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asian</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Latinx</t>
   </si>
 </sst>
 </file>
@@ -959,7 +971,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,16 +984,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -995,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1012,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1029,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1046,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>24</v>
@@ -1063,10 +1075,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1080,10 +1092,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1097,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1114,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>45</v>
@@ -1131,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
-        <v>57.595599999999997</v>
+        <v>96.126300000000001</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1148,10 +1160,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
-        <v>96.126300000000001</v>
+        <v>66.890600000000006</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1165,10 +1177,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
-        <v>66.890600000000006</v>
+        <v>57.595599999999997</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1182,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
         <v>50.4191</v>
@@ -1199,10 +1211,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1216,10 +1228,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1233,10 +1245,10 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1250,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1">
         <v>30</v>
@@ -1267,10 +1279,10 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1284,10 +1296,10 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1301,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1318,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
         <v>47</v>
@@ -1337,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,16 +1363,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1374,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1389,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1404,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1419,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
@@ -1436,10 +1448,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1451,10 +1463,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1466,10 +1478,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1481,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>60</v>
@@ -1496,10 +1508,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1511,10 +1523,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1526,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1541,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>33</v>
@@ -1556,10 +1568,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1571,10 +1583,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1586,10 +1598,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1601,7 +1613,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1">
         <v>47</v>
@@ -1616,10 +1628,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1631,10 +1643,10 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1646,10 +1658,10 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1661,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <v>47</v>
@@ -1677,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1691,16 +1703,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
